--- a/biology/Botanique/Golovinomyces_cichoracearum/Golovinomyces_cichoracearum.xlsx
+++ b/biology/Botanique/Golovinomyces_cichoracearum/Golovinomyces_cichoracearum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Golovinomyces cichoracearum (synonyme : Erysiphe cichoracearum) est une espèce de champignons ascomycètes de la famille des Erysiphaceae.
 Ce champignon phytopathogène est responsable de formes d'oïdium chez diverses plantes cultivées, notamment de l'oïdium de la pomme de terre et de l'oïdium des cucurbitacées.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 octobre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 octobre 2014) :
 Erysiphe ambrosiae Schwein. 1834,
 Erysiphe cichoracearum DC. 1805,
 Erysiphe cichoracearum var. cichoracearum DC. 1821,
@@ -561,9 +575,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (18 sept. 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (18 sept. 2011) :
 variété Golovinomyces cichoracearum var. cichoracearum</t>
         </is>
       </c>
